--- a/QboImporterTool/bin/Debug/employees.xlsx
+++ b/QboImporterTool/bin/Debug/employees.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Katie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
     <definedName name="QBCANSUPPORTUPDATE" localSheetId="0">FALSE</definedName>
     <definedName name="QBCOMPANYFILENAME" localSheetId="0">"S:\Accounting\backups\Restored_Fixed_114382_Direct Logistics, Inc-2015 restore 12022015.QBW"</definedName>
-    <definedName name="QBENDDATE" localSheetId="0">20151214</definedName>
+    <definedName name="QBENDDATE" localSheetId="0">20151217</definedName>
     <definedName name="QBHEADERSONSCREEN" localSheetId="0">FALSE</definedName>
     <definedName name="QBMETADATASIZE" localSheetId="0">0</definedName>
     <definedName name="QBPRESERVECOLOR" localSheetId="0">TRUE</definedName>
@@ -66,7 +66,7 @@
     <definedName name="QBREPORTSUBCOLAXIS" localSheetId="0">0</definedName>
     <definedName name="QBREPORTTYPE" localSheetId="0">218</definedName>
     <definedName name="QBROWHEADERS" localSheetId="0">0</definedName>
-    <definedName name="QBSTARTDATE" localSheetId="0">20151214</definedName>
+    <definedName name="QBSTARTDATE" localSheetId="0">20151217</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -78,24 +78,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Main Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>SS No.</t>
   </si>
   <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>M.I.</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
     <t>Main Phone</t>
   </si>
   <si>
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Address</t>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>Street2</t>
   </si>
   <si>
     <t>City</t>
@@ -116,51 +122,6 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>Workers Comp Code</t>
-  </si>
-  <si>
-    <t>Albert Ayala</t>
-  </si>
-  <si>
-    <t>Andrew O Gubany</t>
-  </si>
-  <si>
-    <t>Barbara Wright</t>
-  </si>
-  <si>
-    <t>Brian J Lemons</t>
-  </si>
-  <si>
-    <t>Felix R Puga</t>
-  </si>
-  <si>
-    <t>Glenn A. Lemons</t>
-  </si>
-  <si>
-    <t>Jeanie M Armstrong</t>
-  </si>
-  <si>
-    <t>Jessie Gorman</t>
-  </si>
-  <si>
-    <t>Kevin P Lynam</t>
-  </si>
-  <si>
-    <t>Robert Cramer</t>
-  </si>
-  <si>
-    <t>Rosanna Mejorado</t>
-  </si>
-  <si>
-    <t>Sandra M Murillo</t>
-  </si>
-  <si>
-    <t>Timothy M Kelsey Sr.</t>
-  </si>
-  <si>
-    <t>Valerie Kelsey</t>
-  </si>
-  <si>
     <t>452-37-6832</t>
   </si>
   <si>
@@ -203,6 +164,105 @@
     <t>467-27-6859</t>
   </si>
   <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
+    <t>Jeanie</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Rosanna</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ayala</t>
+  </si>
+  <si>
+    <t>Gubany</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Lemons</t>
+  </si>
+  <si>
+    <t>Puga</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>Gorman</t>
+  </si>
+  <si>
+    <t>Lynam</t>
+  </si>
+  <si>
+    <t>Cramer</t>
+  </si>
+  <si>
+    <t>Mejorado</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>Kelsey Sr.</t>
+  </si>
+  <si>
+    <t>Kelsey</t>
+  </si>
+  <si>
     <t>214-325-4730</t>
   </si>
   <si>
@@ -224,43 +284,46 @@
     <t>214-327-4228</t>
   </si>
   <si>
-    <t>927 Westlake Desoto, TX 75115</t>
-  </si>
-  <si>
-    <t>530 W. Patwood Dr La Habra, CA 90631</t>
-  </si>
-  <si>
-    <t>8601 Ice House Dr #5115 North Richland Hills, TX 76180</t>
-  </si>
-  <si>
-    <t>503 Ranch Trail Road #101 Irving, TX 75063</t>
-  </si>
-  <si>
-    <t>10836 Stone Canyon Rd Dallas, TX 75230</t>
-  </si>
-  <si>
-    <t>619 Meadowview Ln Coppell, TX 75019</t>
-  </si>
-  <si>
-    <t>161 Whitetail Dr Willow Park, TX 76008</t>
-  </si>
-  <si>
-    <t>1430 Northridge Dr Carrollton, TX 75006</t>
-  </si>
-  <si>
-    <t>110 Park Lane Double Oak, TX 75077</t>
-  </si>
-  <si>
-    <t>1020 Springhill Dr Saginaw, TX 76179</t>
-  </si>
-  <si>
-    <t>1200 Clark Cir Cedar Hill, TX 75104</t>
-  </si>
-  <si>
-    <t>10182 San Juan Ave Dallas, TX 75228</t>
-  </si>
-  <si>
-    <t>250 Barkley Dr Hickory Creek, TX 75065</t>
+    <t>927 Westlake</t>
+  </si>
+  <si>
+    <t>530 W. Patwood Dr</t>
+  </si>
+  <si>
+    <t>8601 Ice House Dr #5115</t>
+  </si>
+  <si>
+    <t>503 Ranch Trail Road</t>
+  </si>
+  <si>
+    <t>10836 Stone Canyon Rd</t>
+  </si>
+  <si>
+    <t>619 Meadowview Ln</t>
+  </si>
+  <si>
+    <t>161 Whitetail Dr</t>
+  </si>
+  <si>
+    <t>1430 Northridge Dr</t>
+  </si>
+  <si>
+    <t>110 Park Lane</t>
+  </si>
+  <si>
+    <t>1020 Springhill Dr</t>
+  </si>
+  <si>
+    <t>1200 Clark Cir</t>
+  </si>
+  <si>
+    <t>10182 San Juan Ave</t>
+  </si>
+  <si>
+    <t>250 Barkley Dr</t>
+  </si>
+  <si>
+    <t>#101</t>
   </si>
   <si>
     <t>Desoto</t>
@@ -704,30 +767,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -768,531 +833,594 @@
       <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2">
         <v>23042</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="2">
+        <v>94</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="2">
         <v>34519</v>
       </c>
-      <c r="M2" s="3">
+      <c r="O2" s="3">
         <v>47000</v>
       </c>
-      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2">
         <v>28707</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="2">
+        <v>95</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="2">
         <v>39391</v>
       </c>
-      <c r="M3" s="3">
+      <c r="O3" s="3">
         <v>78000</v>
       </c>
-      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2">
         <v>21625</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="2">
         <v>38282</v>
       </c>
-      <c r="M4" s="3">
+      <c r="O4" s="3">
         <v>51500</v>
       </c>
-      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2">
         <v>17018</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="2">
+        <v>94</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" s="2">
         <v>38508</v>
       </c>
-      <c r="M5" s="3">
+      <c r="O5" s="3">
         <v>60000</v>
       </c>
-      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2">
         <v>27101</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="2">
+        <v>94</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="2">
         <v>40658</v>
       </c>
-      <c r="M6" s="3">
+      <c r="O6" s="3">
         <v>47500</v>
       </c>
-      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2">
         <v>18946</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="2">
+        <v>94</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="2">
         <v>34519</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
         <v>200000</v>
       </c>
-      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2">
         <v>31160</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="2">
+        <v>94</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="2">
         <v>39454</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>51500</v>
       </c>
-      <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2">
         <v>31680</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="2">
+        <v>94</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="2">
         <v>40000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>60000</v>
       </c>
-      <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2">
         <v>24684</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="2">
+        <v>94</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="2">
         <v>38230</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>131000</v>
       </c>
-      <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2">
         <v>22815</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="2">
+        <v>94</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="2">
         <v>38705</v>
       </c>
-      <c r="M11" s="3">
+      <c r="O11" s="3">
         <v>46000</v>
       </c>
-      <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2">
         <v>23990</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="2">
+        <v>94</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="2">
         <v>38453</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>87000</v>
       </c>
-      <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2">
         <v>27497</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="2">
+        <v>94</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="2">
         <v>35842</v>
       </c>
-      <c r="M13" s="3">
+      <c r="O13" s="3">
         <v>79000</v>
       </c>
-      <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2">
         <v>21472</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="2">
+        <v>94</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="2">
         <v>37496</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>110000</v>
       </c>
-      <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2">
         <v>21812</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="2">
+        <v>94</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="2">
         <v>36739</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>60000</v>
       </c>
-      <c r="N15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.1" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 3:23 PM
-&amp;"Arial,Bold"&amp;8 12/14/15&amp;C&amp;"Arial,Bold"&amp;12 Direct Logistics, Inc
+    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 4:24 PM
+&amp;"Arial,Bold"&amp;8 12/17/15&amp;C&amp;"Arial,Bold"&amp;12 Direct Logistics, Inc
 &amp;"Arial,Bold"&amp;14 Employee Contact List 12132015</oddHeader>
     <oddFooter>&amp;R&amp;"Arial,Bold"&amp;8 Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
